--- a/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="94">
   <si>
     <t>土地坐落</t>
   </si>
@@ -222,6 +222,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中影</t>
   </si>
   <si>
@@ -259,6 +268,9 @@
   </si>
   <si>
     <t>嚴纪華</t>
+  </si>
+  <si>
+    <t>2011-12-29</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1540,13 +1552,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1565,13 +1577,22 @@
       <c r="G1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1588,13 +1609,22 @@
       <c r="G2" s="2">
         <v>3050000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1611,13 +1641,22 @@
       <c r="G3" s="2">
         <v>5290</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1634,16 +1673,25 @@
       <c r="G4" s="2">
         <v>6471740</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2">
         <v>16752</v>
@@ -1657,13 +1705,22 @@
       <c r="G5" s="2">
         <v>167520</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1680,13 +1737,22 @@
       <c r="G6" s="2">
         <v>24830</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1703,13 +1769,22 @@
       <c r="G7" s="2">
         <v>950000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1726,13 +1801,22 @@
       <c r="G8" s="2">
         <v>273890</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1749,13 +1833,22 @@
       <c r="G9" s="2">
         <v>45450</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1772,13 +1865,22 @@
       <c r="G10" s="2">
         <v>77660</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1795,13 +1897,22 @@
       <c r="G11" s="2">
         <v>141680</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -1818,13 +1929,22 @@
       <c r="G12" s="2">
         <v>9720</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -1840,6 +1960,15 @@
       </c>
       <c r="G13" s="2">
         <v>200000</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="2">
+        <v>966</v>
       </c>
     </row>
   </sheetData>
@@ -1857,19 +1986,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>39</v>
@@ -1880,22 +2009,22 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="96">
   <si>
     <t>土地坐落</t>
   </si>
@@ -222,6 +222,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -268,6 +271,9 @@
   </si>
   <si>
     <t>嚴纪華</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-12-29</t>
@@ -1552,13 +1558,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1586,13 +1592,16 @@
       <c r="J1" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1610,21 +1619,24 @@
         <v>3050000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2">
+        <v>85</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1642,21 +1654,24 @@
         <v>5290</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="2">
+        <v>85</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1674,24 +1689,27 @@
         <v>6471740</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2">
+        <v>85</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2">
         <v>16752</v>
@@ -1706,21 +1724,24 @@
         <v>167520</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="2">
+        <v>85</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1738,21 +1759,24 @@
         <v>24830</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="2">
+        <v>85</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1770,21 +1794,24 @@
         <v>950000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="2">
+        <v>85</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1802,21 +1829,24 @@
         <v>273890</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="2">
+        <v>85</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1834,21 +1864,24 @@
         <v>45450</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="2">
+        <v>85</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1866,21 +1899,24 @@
         <v>77660</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="2">
+        <v>85</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1898,21 +1934,24 @@
         <v>141680</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="2">
+        <v>85</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -1930,21 +1969,24 @@
         <v>9720</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="2">
+        <v>85</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="2">
         <v>966</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -1962,12 +2004,15 @@
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="2">
+        <v>85</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="2">
         <v>966</v>
       </c>
     </row>
@@ -1986,19 +2031,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>39</v>
@@ -2009,22 +2054,22 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="101">
   <si>
     <t>土地坐落</t>
   </si>
@@ -225,6 +225,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -234,6 +237,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中影</t>
   </si>
   <si>
@@ -276,7 +285,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-12-29</t>
+  </si>
+  <si>
+    <t>tmpd32d1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1558,13 +1573,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1595,13 +1610,22 @@
       <c r="K1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1619,24 +1643,33 @@
         <v>3050000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1654,24 +1687,33 @@
         <v>5290</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="2">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1689,27 +1731,36 @@
         <v>6471740</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2">
         <v>16752</v>
@@ -1724,24 +1775,33 @@
         <v>167520</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="2">
+        <v>89</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1759,24 +1819,33 @@
         <v>24830</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="2">
+        <v>966</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="2">
         <v>84</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="2">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1794,24 +1863,33 @@
         <v>950000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2">
+        <v>966</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="2">
         <v>85</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="2">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1829,24 +1907,33 @@
         <v>273890</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="2">
+        <v>89</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1864,24 +1951,33 @@
         <v>45450</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="2">
+        <v>89</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1899,24 +1995,33 @@
         <v>77660</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="2">
+        <v>89</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1934,24 +2039,33 @@
         <v>141680</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="2">
+        <v>89</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -1969,24 +2083,33 @@
         <v>9720</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="2">
+        <v>89</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -2004,16 +2127,25 @@
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="2">
+        <v>89</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="2">
         <v>966</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="2">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2031,19 +2163,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>39</v>
@@ -2054,22 +2186,22 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
@@ -19,9 +19,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="101">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="105">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市信義區信義段三小段00180004地號</t>
+  </si>
+  <si>
+    <t>臺北市信義區信義段三小段00180000地號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區潭美段五小段01150000地號</t>
+  </si>
+  <si>
+    <t>100000分之2287</t>
+  </si>
+  <si>
+    <t>10000分之170</t>
+  </si>
+  <si>
+    <t>嚴紀華</t>
+  </si>
+  <si>
+    <t>98年08月01日</t>
+  </si>
+  <si>
+    <t>98年08月01曰</t>
+  </si>
+  <si>
+    <t>99年08月16日</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(含建物39980000)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-29</t>
+  </si>
+  <si>
+    <t>蔡正元</t>
+  </si>
+  <si>
+    <t>tmpd32d1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,61 +135,22 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市信義區信義段三小段 0018-0004 地號</t>
-  </si>
-  <si>
-    <t>臺北市信義區信義段三小段 0018-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區潭美段五小段 0115-0000 地號</t>
-  </si>
-  <si>
-    <t>100000 分 之 2287</t>
-  </si>
-  <si>
-    <t>10000分之 170</t>
-  </si>
-  <si>
-    <t>嚴紀華</t>
-  </si>
-  <si>
-    <t>98年08月 01日</t>
-  </si>
-  <si>
-    <t>98年08月 01曰</t>
-  </si>
-  <si>
-    <t>99年08月 16日</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(含建物 39980000)</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市信義區信義段三小段 01833-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區潭美段五小段 00902-000 建號</t>
+    <t>臺北市信義區信義段三小段01833000建號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區潭美段五小段00902000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>98年07月 01日</t>
+    <t>98年07月01日</t>
   </si>
   <si>
     <t>(贈與）</t>
   </si>
   <si>
-    <t>(含土地 39980000)</t>
+    <t>(含土地39980000)</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -108,22 +162,19 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>小客車BMW 523</t>
-  </si>
-  <si>
-    <t>小客車BENZ S350</t>
-  </si>
-  <si>
-    <t>蔡正元</t>
-  </si>
-  <si>
-    <t>99年02月 02日</t>
-  </si>
-  <si>
-    <t>99年01月 05日</t>
-  </si>
-  <si>
-    <t>2，000,000</t>
+    <t>小客車BMW523</t>
+  </si>
+  <si>
+    <t>小客車BENZS350</t>
+  </si>
+  <si>
+    <t>99年02月02日</t>
+  </si>
+  <si>
+    <t>99年01月05日</t>
+  </si>
+  <si>
+    <t>2000000</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -201,13 +252,7 @@
     <t>港幣</t>
   </si>
   <si>
-    <t>3，586，993</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>3586993</t>
   </si>
   <si>
     <t>quantity</t>
@@ -222,27 +267,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>中影</t>
   </si>
   <si>
@@ -285,15 +309,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-12-29</t>
-  </si>
-  <si>
-    <t>tmpd32d1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -306,7 +321,7 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>財 產</t>
+    <t>財產</t>
   </si>
   <si>
     <t>種</t>
@@ -316,9 +331,6 @@
   </si>
   <si>
     <t>項</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
   <si>
     <t>件</t>
@@ -680,13 +692,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,83 +720,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2155</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2">
         <v>5864897</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>966</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>891</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2">
         <v>4411657</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>966</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>3467.46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>966</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
         <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -802,25 +898,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -828,22 +924,22 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>186.09</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2">
         <v>1050200</v>
@@ -854,25 +950,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>162.99</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -890,22 +986,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -913,19 +1009,19 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>2497</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2">
         <v>2350000</v>
@@ -936,22 +1032,22 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>3498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -969,22 +1065,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -992,16 +1088,16 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1013,16 +1109,16 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1034,16 +1130,16 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
         <v>10000</v>
@@ -1057,16 +1153,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2">
         <v>61.45</v>
@@ -1080,16 +1176,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1101,16 +1197,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1122,16 +1218,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1143,16 +1239,16 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1164,16 +1260,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2">
         <v>59853</v>
@@ -1187,22 +1283,22 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2">
         <v>107395</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1210,16 +1306,16 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1231,16 +1327,16 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1252,16 +1348,16 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1273,16 +1369,16 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1294,16 +1390,16 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1315,16 +1411,16 @@
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1336,16 +1432,16 @@
         <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1357,16 +1453,16 @@
         <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1378,16 +1474,16 @@
         <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1399,16 +1495,16 @@
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1420,16 +1516,16 @@
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F22" s="2">
         <v>8000</v>
@@ -1443,16 +1539,16 @@
         <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F23" s="2">
         <v>953744</v>
@@ -1466,16 +1562,16 @@
         <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -1487,16 +1583,16 @@
         <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -1508,16 +1604,16 @@
         <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -1529,16 +1625,16 @@
         <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -1550,16 +1646,16 @@
         <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
@@ -1581,43 +1677,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1625,10 +1721,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>305000</v>
@@ -1637,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2">
         <v>3050000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2">
         <v>966</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <v>80</v>
@@ -1669,10 +1765,10 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>529</v>
@@ -1681,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2">
         <v>5290</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2">
         <v>966</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <v>81</v>
@@ -1713,10 +1809,10 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>647174</v>
@@ -1725,28 +1821,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2">
         <v>6471740</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2">
         <v>966</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
         <v>82</v>
@@ -1757,10 +1853,10 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2">
         <v>16752</v>
@@ -1769,28 +1865,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2">
         <v>167520</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L5" s="2">
         <v>966</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
         <v>83</v>
@@ -1801,10 +1897,10 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>2483</v>
@@ -1813,28 +1909,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2">
         <v>24830</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L6" s="2">
         <v>966</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
         <v>84</v>
@@ -1845,10 +1941,10 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>95000</v>
@@ -1857,28 +1953,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G7" s="2">
         <v>950000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L7" s="2">
         <v>966</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2">
         <v>85</v>
@@ -1889,10 +1985,10 @@
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <v>27389</v>
@@ -1901,28 +1997,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G8" s="2">
         <v>273890</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L8" s="2">
         <v>966</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N8" s="2">
         <v>86</v>
@@ -1933,10 +2029,10 @@
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>4545</v>
@@ -1945,28 +2041,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2">
         <v>45450</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L9" s="2">
         <v>966</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N9" s="2">
         <v>87</v>
@@ -1977,10 +2073,10 @@
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <v>7766</v>
@@ -1989,28 +2085,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G10" s="2">
         <v>77660</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L10" s="2">
         <v>966</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N10" s="2">
         <v>88</v>
@@ -2021,10 +2117,10 @@
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>14168</v>
@@ -2033,28 +2129,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G11" s="2">
         <v>141680</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L11" s="2">
         <v>966</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N11" s="2">
         <v>89</v>
@@ -2065,10 +2161,10 @@
         <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <v>972</v>
@@ -2077,28 +2173,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G12" s="2">
         <v>9720</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L12" s="2">
         <v>966</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N12" s="2">
         <v>90</v>
@@ -2109,10 +2205,10 @@
         <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <v>20000</v>
@@ -2121,28 +2217,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L13" s="2">
         <v>966</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N13" s="2">
         <v>91</v>
@@ -2163,22 +2259,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2186,22 +2282,20 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -138,13 +138,16 @@
     <t>(含土地39980000)</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>小客車BMW523</t>
   </si>
   <si>
+    <t>小客車BENZS350</t>
+  </si>
+  <si>
     <t>99年02月02日</t>
-  </si>
-  <si>
-    <t>小客車BENZS350</t>
   </si>
   <si>
     <t>99年01月05日</t>
@@ -1029,38 +1032,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1">
-        <v>2497</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2350000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>2497</v>
@@ -1069,7 +1093,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>26</v>
@@ -1077,8 +1101,29 @@
       <c r="G2" s="2">
         <v>2350000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>966</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>32</v>
       </c>
@@ -1092,13 +1137,34 @@
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2">
+        <v>966</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1116,13 +1182,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1137,13 +1203,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1158,13 +1224,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1179,13 +1245,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1202,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1225,13 +1291,13 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1246,13 +1312,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -1267,13 +1333,13 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1288,13 +1354,13 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -1309,13 +1375,13 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1332,13 +1398,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -1347,7 +1413,7 @@
         <v>107395</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1355,13 +1421,13 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -1376,13 +1442,13 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1397,13 +1463,13 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1418,13 +1484,13 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -1439,13 +1505,13 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -1460,13 +1526,13 @@
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
@@ -1481,13 +1547,13 @@
         <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
@@ -1502,13 +1568,13 @@
         <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
@@ -1523,13 +1589,13 @@
         <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>31</v>
@@ -1544,13 +1610,13 @@
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>31</v>
@@ -1565,13 +1631,13 @@
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>31</v>
@@ -1588,13 +1654,13 @@
         <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>31</v>
@@ -1611,13 +1677,13 @@
         <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
@@ -1632,13 +1698,13 @@
         <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>31</v>
@@ -1653,13 +1719,13 @@
         <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>31</v>
@@ -1674,13 +1740,13 @@
         <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>31</v>
@@ -1695,13 +1761,13 @@
         <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
@@ -1732,13 +1798,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1770,7 +1836,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1782,13 +1848,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
         <v>3050000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1814,7 +1880,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1826,13 +1892,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2">
         <v>5290</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -1858,7 +1924,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1870,13 +1936,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2">
         <v>6471740</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>29</v>
@@ -1902,10 +1968,10 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2">
         <v>16752</v>
@@ -1914,13 +1980,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2">
         <v>167520</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>29</v>
@@ -1946,7 +2012,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1958,13 +2024,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2">
         <v>24830</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
@@ -1990,7 +2056,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -2002,13 +2068,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2">
         <v>950000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>29</v>
@@ -2034,7 +2100,7 @@
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -2046,13 +2112,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2">
         <v>273890</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>29</v>
@@ -2078,7 +2144,7 @@
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -2090,13 +2156,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2">
         <v>45450</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>29</v>
@@ -2122,7 +2188,7 @@
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -2134,13 +2200,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2">
         <v>77660</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>29</v>
@@ -2166,7 +2232,7 @@
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -2178,13 +2244,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2">
         <v>141680</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>29</v>
@@ -2210,7 +2276,7 @@
         <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -2222,13 +2288,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2">
         <v>9720</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>29</v>
@@ -2254,7 +2320,7 @@
         <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -2266,13 +2332,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>29</v>
@@ -2308,20 +2374,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2329,20 +2395,20 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -138,6 +138,9 @@
     <t>(含土地39980000)</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
   </si>
   <si>
     <t>2000000</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>匯豐銀行</t>
@@ -945,7 +951,7 @@
         <v>1050200</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>29</v>
@@ -998,7 +1004,7 @@
         <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -1043,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1084,7 +1090,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>2497</v>
@@ -1093,7 +1099,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>26</v>
@@ -1102,7 +1108,7 @@
         <v>2350000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1128,7 +1134,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>3498</v>
@@ -1137,16 +1143,16 @@
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -1182,13 +1188,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1203,13 +1209,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1224,13 +1230,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1245,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1268,13 +1274,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1291,13 +1297,13 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1312,13 +1318,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -1333,13 +1339,13 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1354,13 +1360,13 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -1375,13 +1381,13 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1398,13 +1404,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -1413,7 +1419,7 @@
         <v>107395</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1421,13 +1427,13 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -1442,13 +1448,13 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1463,13 +1469,13 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1484,13 +1490,13 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -1505,13 +1511,13 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -1526,13 +1532,13 @@
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
@@ -1547,13 +1553,13 @@
         <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
@@ -1568,13 +1574,13 @@
         <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
@@ -1589,13 +1595,13 @@
         <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>31</v>
@@ -1610,13 +1616,13 @@
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>31</v>
@@ -1631,13 +1637,13 @@
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>31</v>
@@ -1654,13 +1660,13 @@
         <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>31</v>
@@ -1677,13 +1683,13 @@
         <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
@@ -1698,13 +1704,13 @@
         <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>31</v>
@@ -1719,13 +1725,13 @@
         <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>31</v>
@@ -1740,13 +1746,13 @@
         <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>31</v>
@@ -1761,13 +1767,13 @@
         <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
@@ -1798,13 +1804,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1836,7 +1842,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1848,13 +1854,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2">
         <v>3050000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1880,7 +1886,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1892,13 +1898,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2">
         <v>5290</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -1924,7 +1930,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1936,13 +1942,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2">
         <v>6471740</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>29</v>
@@ -1968,10 +1974,10 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2">
         <v>16752</v>
@@ -1980,13 +1986,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2">
         <v>167520</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>29</v>
@@ -2012,7 +2018,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -2024,13 +2030,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2">
         <v>24830</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
@@ -2056,7 +2062,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -2068,13 +2074,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2">
         <v>950000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>29</v>
@@ -2100,7 +2106,7 @@
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -2112,13 +2118,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2">
         <v>273890</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>29</v>
@@ -2144,7 +2150,7 @@
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -2156,13 +2162,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2">
         <v>45450</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>29</v>
@@ -2188,7 +2194,7 @@
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -2200,13 +2206,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2">
         <v>77660</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>29</v>
@@ -2232,7 +2238,7 @@
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -2244,13 +2250,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2">
         <v>141680</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>29</v>
@@ -2276,7 +2282,7 @@
         <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -2288,13 +2294,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G12" s="2">
         <v>9720</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>29</v>
@@ -2320,7 +2326,7 @@
         <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -2332,13 +2338,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>29</v>
@@ -2374,20 +2380,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2395,20 +2401,20 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -162,76 +162,82 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>匯豐銀行</t>
   </si>
   <si>
+    <t>台新國際商業銀行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>香港富邦銀行</t>
+  </si>
+  <si>
+    <t>香港中國工商銀行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>新加坡商星展銀行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台新國際商業銀行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>香港富邦銀行</t>
-  </si>
-  <si>
-    <t>香港中國工商銀行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>新加坡商星展銀行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>港幣</t>
   </si>
   <si>
-    <t>3586993</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中影</t>
@@ -1180,13 +1186,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1197,590 +1203,1138 @@
         <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>2202494</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2202494</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2">
+        <v>966</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
         <v>47</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>2202494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9000000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2">
+        <v>966</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
         <v>48</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>9000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="G4" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2">
+        <v>966</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="2">
-        <v>61.45</v>
-      </c>
-      <c r="G5" s="2">
         <v>2052.43</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2">
+        <v>966</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>580835</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2">
+        <v>966</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2">
+        <v>966</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>426215</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2">
+        <v>966</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>4519148</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="2">
+        <v>966</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2">
-        <v>59853</v>
-      </c>
-      <c r="G10" s="2">
         <v>1999090.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="2">
+        <v>966</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="2">
-        <v>107395</v>
+        <v>3586993</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>70</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="2">
+        <v>966</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>329625</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="2">
+        <v>966</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>4000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="2">
+        <v>966</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>283068</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2">
+        <v>966</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>1006645</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="2">
+        <v>966</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>216013</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="2">
+        <v>966</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>356487</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="2">
+        <v>966</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>237665</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="2">
+        <v>966</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>2419670</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="2">
+        <v>966</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>4085157</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="2">
+        <v>966</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="2">
+        <v>966</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="2">
-        <v>8000</v>
-      </c>
-      <c r="G22" s="2">
         <v>36000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="2">
+        <v>966</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="2">
-        <v>953744</v>
-      </c>
-      <c r="G23" s="2">
         <v>4291848</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="2">
+        <v>966</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>473</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="2">
+        <v>966</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="2">
+        <v>966</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+      <c r="F26" s="2">
         <v>335</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="2">
+        <v>966</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="F27" s="2">
         <v>1875</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="2">
+        <v>966</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
+      <c r="F28" s="2">
         <v>416</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="2">
+        <v>966</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1804,13 +2358,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1842,7 +2396,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1854,13 +2408,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2">
         <v>3050000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1886,7 +2440,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1898,13 +2452,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2">
         <v>5290</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -1930,7 +2484,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1942,13 +2496,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2">
         <v>6471740</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>29</v>
@@ -1974,10 +2528,10 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2">
         <v>16752</v>
@@ -1986,13 +2540,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2">
         <v>167520</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>29</v>
@@ -2018,7 +2572,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -2030,13 +2584,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2">
         <v>24830</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
@@ -2062,7 +2616,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -2074,13 +2628,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2">
         <v>950000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>29</v>
@@ -2106,7 +2660,7 @@
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -2118,13 +2672,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2">
         <v>273890</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>29</v>
@@ -2150,7 +2704,7 @@
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -2162,13 +2716,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2">
         <v>45450</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>29</v>
@@ -2194,7 +2748,7 @@
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -2206,13 +2760,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2">
         <v>77660</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>29</v>
@@ -2238,7 +2792,7 @@
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -2250,13 +2804,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2">
         <v>141680</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>29</v>
@@ -2282,7 +2836,7 @@
         <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -2294,13 +2848,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2">
         <v>9720</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>29</v>
@@ -2326,7 +2880,7 @@
         <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -2338,13 +2892,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>29</v>
@@ -2380,20 +2934,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2401,20 +2955,20 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
@@ -12,14 +12,13 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -280,21 +279,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>財產</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
   </si>
 </sst>
 </file>
@@ -2922,56 +2906,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>108</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
+++ b/legislator/property/output/normal/蔡正元_2011-12-29_財產申報表_tmpd32d1.xlsx
@@ -12,13 +12,15 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="債權" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="98">
   <si>
     <t>name</t>
   </si>
@@ -279,6 +281,39 @@
   </si>
   <si>
     <t>stock</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>應收款項</t>
+  </si>
+  <si>
+    <t>洪信行新北市新店區中央路</t>
+  </si>
+  <si>
+    <t>96年07月19日</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>房屋貸款</t>
+  </si>
+  <si>
+    <t>華南銀行松山分行臺北市松山區八德路</t>
+  </si>
+  <si>
+    <t>99年08月23日</t>
+  </si>
+  <si>
+    <t>房貸</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2906,4 +2941,200 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>966</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="2">
+        <v>27380563</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>966</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>